--- a/data/param.xlsx
+++ b/data/param.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\PycharmProjects\untitled5\ADInterface\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\PycharmProjects\untitled6\ADInterface\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13905" tabRatio="758" firstSheet="25" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13905" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="校验返回值前贴二级分类定向" sheetId="6" r:id="rId1"/>
@@ -34,13 +34,17 @@
     <sheet name="校验返回值前贴时长时段定向 (2)" sheetId="26" r:id="rId20"/>
     <sheet name="校验返回值前贴时长时段定向 (3)" sheetId="25" r:id="rId21"/>
     <sheet name="校验返回值前贴地域ip定向" sheetId="27" r:id="rId22"/>
-    <sheet name="校验返回值前贴设备号应用渠道定向" sheetId="28" r:id="rId23"/>
-    <sheet name="校验返回值前贴设备号应用渠道定向 (2)" sheetId="29" r:id="rId24"/>
-    <sheet name="校验返回值前贴设备号应用渠道定向 (3)" sheetId="30" r:id="rId25"/>
-    <sheet name="校验返回值前贴设备号应用渠道定向 (4)" sheetId="31" r:id="rId26"/>
-    <sheet name="校验返回值前贴频次控制定向" sheetId="32" r:id="rId27"/>
-    <sheet name="校验返回值前贴每天投" sheetId="33" r:id="rId28"/>
-    <sheet name="创建投放" sheetId="1" r:id="rId29"/>
+    <sheet name="校验返回值前贴地域北京定向 (2)" sheetId="37" r:id="rId23"/>
+    <sheet name="校验返回值前贴ip固定定向 (3)" sheetId="38" r:id="rId24"/>
+    <sheet name="校验返回值前贴设备号应用渠道定向" sheetId="28" r:id="rId25"/>
+    <sheet name="校验返回值前贴设备号应用渠道定向 (2)" sheetId="29" r:id="rId26"/>
+    <sheet name="校验返回值前贴设备号应用渠道定向 (3)" sheetId="30" r:id="rId27"/>
+    <sheet name="校验返回值前贴设备号应用渠道定向 (4)" sheetId="31" r:id="rId28"/>
+    <sheet name="校验返回值前贴频次控制定向" sheetId="32" r:id="rId29"/>
+    <sheet name="校验返回值前贴每天投" sheetId="33" r:id="rId30"/>
+    <sheet name="校验返回值前贴总共投" sheetId="34" r:id="rId31"/>
+    <sheet name="校验返回值前贴多个创意" sheetId="35" r:id="rId32"/>
+    <sheet name="校验返回值前贴单个创意ts" sheetId="36" r:id="rId33"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="154">
   <si>
     <t>方法</t>
     <rPh sb="0" eb="1">
@@ -144,134 +148,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://test.admin.adott.ottcn.org/api/mediabuy_operate</t>
   </si>
   <si>
+    <t>adspace_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpmonitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001:102200000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试创建接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datePeriods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adspace_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patch_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tpmonitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_number_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_number_per_day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert_percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frequent_limit_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frequent_limit_valid_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serialcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2019-02-20 00:00:00",
-"2019-03-15 00:00:00"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001:102200000000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>014356798w7e8wew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mediabuy_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://api.adott.ottcn.org/ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,18 +396,6 @@
   </si>
   <si>
     <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1156120000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.199.106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,15 +525,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adspaces/before</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adspaces/before/[0]/materials/[0]/name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["107","0"]</t>
+    <t>zonggongtou123</t>
+  </si>
+  <si>
+    <t>zonggongtou123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channelcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zonggongtou123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channelcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8acb5c18e56c1988723297b1a8dc9260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1549</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duogechuangyi123</t>
+  </si>
+  <si>
+    <t>adspaces/before/[0]/materials/[1]/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福娃公益广告-诚立身（注入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts123</t>
+  </si>
+  <si>
+    <t>福娃公益广告-孝当先1080p[江苏注入]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_number_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediabuy_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试创建接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datePeriods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2019-02-20 00:00:00,
+2019-03-15 00:00:00]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[107,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_number_per_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequent_limit_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequent_limit_valid_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014356798w7e8wew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.150.146.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diyubeijing123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipguding123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,16 +794,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1028,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1048,19 +1127,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1073,27 +1152,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>53</v>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1147,19 +1226,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1172,27 +1251,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>79</v>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1289,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1227,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1247,19 +1326,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1272,27 +1351,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>81</v>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1347,19 +1426,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1372,27 +1451,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1489,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1427,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1447,19 +1526,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1472,27 +1551,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>84</v>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1547,19 +1626,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1572,27 +1651,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1689,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1627,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1647,19 +1726,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1672,27 +1751,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>87</v>
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1747,19 +1826,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1772,27 +1851,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>89</v>
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +1889,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1827,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1847,19 +1926,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1872,27 +1951,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>92</v>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1989,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1927,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1947,19 +2026,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1972,27 +2051,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>93</v>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2089,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2027,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2047,19 +2126,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2072,35 +2151,35 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>95</v>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2154,20 +2233,20 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>58</v>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2175,29 +2254,29 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>64</v>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D6">
         <v>123</v>
@@ -2234,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2254,19 +2333,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2279,35 +2358,35 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>99</v>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2362,19 +2441,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2387,35 +2466,35 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>100</v>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2430,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2450,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2470,60 +2549,52 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>600001</v>
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>105</v>
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2538,10 +2609,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2558,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2578,44 +2649,52 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>600001</v>
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
+        <v>150</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2630,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2650,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2670,44 +2749,52 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>600001</v>
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
+        <v>150</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2725,7 +2812,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2742,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2762,19 +2849,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2787,19 +2874,19 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2834,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2854,44 +2941,44 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>113</v>
+      <c r="D3" s="1">
+        <v>600001</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2906,10 +2993,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2926,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2945,272 +3032,63 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>115</v>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>120</v>
+      <c r="D3" s="1">
+        <v>600001</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24">
-        <v>419</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B20" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3227,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3247,19 +3125,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3267,256 +3145,51 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B20" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39.75" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
-    <col min="4" max="5" width="34.75" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -3524,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3540,208 +3213,554 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D10" s="6">
+        <v>1022</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="6">
+        <v>100</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6">
+        <v>100</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+      <c r="C53" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+      <c r="D53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
+      <c r="D55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://api.adott.ottcn.org/ad"/>
-    <hyperlink ref="D13" r:id="rId2"/>
+    <hyperlink ref="B42" r:id="rId1"/>
+    <hyperlink ref="B53" r:id="rId2"/>
+    <hyperlink ref="B37" r:id="rId3"/>
+    <hyperlink ref="B48" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3767,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3787,19 +3806,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3812,27 +3831,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>66</v>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3841,6 +3860,797 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B19" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B19" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3866,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3886,19 +4696,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3911,27 +4721,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>68</v>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +4758,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3965,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3985,19 +4795,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4010,27 +4820,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>70</v>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4084,19 +4894,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4109,27 +4919,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4146,7 +4956,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4163,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4183,19 +4993,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4208,27 +5018,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>75</v>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4262,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4282,19 +5092,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4307,27 +5117,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4344,7 +5154,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4361,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4381,19 +5191,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4406,27 +5216,27 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>78</v>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/param.xlsx
+++ b/data/param.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095C4332-D64E-BC42-8213-F11A8B737489}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1930842-F312-F341-89AF-29913727B65C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
   <si>
     <t>at</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,10 @@
     <rPh sb="3" eb="4">
       <t>ming</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,309 +689,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A146" sqref="A22:XFD146"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7">
+      <c r="C4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:7">
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:7">
       <c r="B9" s="1"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>600001</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="1"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" s="1"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="7"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:7">
       <c r="B14" s="1"/>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>600001</v>
       </c>
-      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" s="1"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" s="1"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="D17" s="7"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="1:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>600001</v>
       </c>
-      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" s="1"/>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" s="1"/>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -995,319 +1002,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A152" sqref="A23:XFD152"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7">
+      <c r="C10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:7">
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:7">
       <c r="B15" s="1"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>600001</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" s="1"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="B17" s="1"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="D18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:7">
       <c r="B20" s="1"/>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>600001</v>
       </c>
-      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" s="1"/>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22" s="1"/>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B19" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1316,319 +1324,320 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7">
+      <c r="C10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:7">
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:7">
       <c r="B15" s="1"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>600001</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" s="1"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="B17" s="1"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="D18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:7">
       <c r="B20" s="1"/>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>600001</v>
       </c>
-      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" s="1"/>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22" s="1"/>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B19" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/data/param.xlsx
+++ b/data/param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1930842-F312-F341-89AF-29913727B65C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFC8CC-3D43-9C49-BE3B-F45FFA5F9C4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中插" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
   <si>
     <t>at</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,29 @@
   </si>
   <si>
     <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adspaces/middle/[0]/materials/[0]/name</t>
+  </si>
+  <si>
+    <t>global_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{global_name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -705,7 +728,7 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -727,8 +750,14 @@
       <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -747,8 +776,14 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,11 +791,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="C4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -783,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -799,178 +834,176 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>600001</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="7"/>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9">
+      <c r="D13" s="7"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E15" s="2">
+        <v>600001</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="D17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="1"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E20" s="2">
+        <v>600001</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -979,22 +1012,34 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1002,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1018,7 +1063,7 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1040,8 +1085,14 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,8 +1120,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:9" s="1" customFormat="1"/>
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1093,7 +1144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,8 +1152,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+    <row r="7" spans="1:9" s="1" customFormat="1"/>
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1125,7 +1176,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,11 +1190,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1166,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -1182,10 +1233,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1208,7 +1259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
@@ -1220,7 +1271,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">
@@ -1324,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1340,7 +1391,7 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1362,8 +1413,14 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1448,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:9" s="1" customFormat="1"/>
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1415,7 +1472,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,8 +1480,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+    <row r="7" spans="1:9" s="1" customFormat="1"/>
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1447,7 +1504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,11 +1518,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1488,7 +1545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -1504,10 +1561,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1530,7 +1587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
@@ -1542,7 +1599,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">

--- a/data/param.xlsx
+++ b/data/param.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFC8CC-3D43-9C49-BE3B-F45FFA5F9C4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215391C2-E5FD-3748-8603-21313DB28B1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中插" sheetId="2" r:id="rId1"/>
     <sheet name="暂停" sheetId="5" r:id="rId2"/>
     <sheet name="直播前贴" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -349,7 +349,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{global_name}</t>
+    <t>$global_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -726,6 +726,7 @@
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
